--- a/깃연습장.xlsx
+++ b/깃연습장.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git 연습 개인\newgittest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Practice\newgittest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B34F11-D67A-486C-8600-188FA59B5104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5BF8E8-14A1-434C-A717-6BE3A66488E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="2460" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28800" yWindow="0" windowWidth="29040" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>깃연습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깃연습하지마</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -353,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C2"/>
+  <dimension ref="B2:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -369,6 +373,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/깃연습장.xlsx
+++ b/깃연습장.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git 연습 개인\newgittest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B34F11-D67A-486C-8600-188FA59B5104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1180D3D3-6A75-412C-929E-056C45DDAEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1965" yWindow="2460" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>깃연습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충돌 테스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -353,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C2"/>
+  <dimension ref="B2:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -369,6 +373,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/깃연습장.xlsx
+++ b/깃연습장.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Practice\newgittest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5BF8E8-14A1-434C-A717-6BE3A66488E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C810E96-D5AD-4254-8FFD-A7FD9B6DB234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28800" yWindow="0" windowWidth="29040" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,13 +25,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>깃연습</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>깃연습하지마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깃연습다시해</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -357,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C3"/>
+  <dimension ref="B2:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -378,6 +382,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
